--- a/Software Metrics.xlsx
+++ b/Software Metrics.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Web\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19F253-A288-4521-8225-616FF5AEFE69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147B260-DC66-482C-A496-13F9746ADA6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -331,12 +331,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -351,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="3" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,48 +655,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="92.25" x14ac:dyDescent="1.35">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="3" spans="2:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>30</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9">
         <f>SUM(C4:E4)</f>
         <v>30</v>
       </c>
@@ -709,17 +709,17 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>30</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9">
         <f t="shared" ref="F5:F10" si="0">SUM(C5:E5)</f>
         <v>35</v>
       </c>
@@ -731,19 +731,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -756,19 +756,19 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>32</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -782,61 +782,61 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>13</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>7</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -849,22 +849,22 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>SUM(C4:C10)</f>
         <v>40</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f>SUM(D4:D10)</f>
         <v>42</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>SUM(E4:E10)</f>
         <v>114</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="12"/>
       <c r="J11" t="s">
         <v>14</v>
       </c>
@@ -898,12 +898,12 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
@@ -947,12 +947,12 @@
       </c>
     </row>
     <row r="21" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J22" s="3" t="str">
@@ -965,12 +965,12 @@
       </c>
     </row>
     <row r="24" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="str">
@@ -983,12 +983,12 @@
       </c>
     </row>
     <row r="27" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J28" s="3" t="str">

--- a/Software Metrics.xlsx
+++ b/Software Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Web\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1147B260-DC66-482C-A496-13F9746ADA6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E348C-3FFF-4522-AEB6-271DA184EFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -640,14 +640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>

--- a/Software Metrics.xlsx
+++ b/Software Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Web\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E348C-3FFF-4522-AEB6-271DA184EFEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78818ED-4C21-4DCC-8DED-18B5DDDA060B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="92.25" x14ac:dyDescent="1.35">
@@ -692,20 +692,20 @@
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9">
         <f>SUM(C4:E4)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3">
         <f>F4</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -716,12 +716,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9">
         <f t="shared" ref="F5:F10" si="0">SUM(C5:E5)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -741,18 +741,18 @@
         <v>3</v>
       </c>
       <c r="E6" s="14">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="3">
         <f>SUM(C5:C10)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -774,11 +774,11 @@
       </c>
       <c r="J7" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K4,"/(",K5,"+",C11,")*",100,"=")</f>
-        <v>DRE =30/(0+40)*100=</v>
+        <v>DRE =25/(0+37)*100=</v>
       </c>
       <c r="K7" s="2">
         <f>(K4/(K5+C11))</f>
-        <v>0.75</v>
+        <v>0.67567567567567566</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -786,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="14">
         <v>3</v>
@@ -796,7 +796,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
@@ -838,14 +838,14 @@
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="3">
         <f>F5</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -854,15 +854,15 @@
       </c>
       <c r="C11" s="9">
         <f>SUM(C4:C10)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D4:D10)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11" s="9">
         <f>SUM(E4:E10)</f>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="12"/>
       <c r="J11" t="s">
@@ -870,11 +870,11 @@
       </c>
       <c r="K11" s="3" t="str">
         <f>_xlfn.CONCAT(C11,"-",F4,"=")</f>
-        <v>40-30=</v>
+        <v>37-25=</v>
       </c>
       <c r="L11" s="3">
         <f>C11-F4</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -883,18 +883,18 @@
       </c>
       <c r="K12" s="3">
         <f>D11</f>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="J13" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K10,"/(",D11,"+",L11,")*",100,"=")</f>
-        <v>DRE =35/(42+10)*100=</v>
+        <v>DRE =30/(37+12)*100=</v>
       </c>
       <c r="K13" s="2">
         <f>(K10/(K12+L11))</f>
-        <v>0.67307692307692313</v>
+        <v>0.61224489795918369</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
       </c>
       <c r="K16" s="3">
         <f>F6</f>
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
@@ -920,11 +920,11 @@
       </c>
       <c r="K17" s="3" t="str">
         <f>_xlfn.CONCAT(C11,"+",D11,"-",F5,"-",F4,"=")</f>
-        <v>40+42-35-30=</v>
+        <v>37+37-30-25=</v>
       </c>
       <c r="L17" s="3">
         <f>C11-F4-F5+D11</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
@@ -933,17 +933,17 @@
       </c>
       <c r="K18" s="3">
         <f>E11</f>
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J19" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K16,"/(",D17,"+",L17,")*",100,"=")</f>
-        <v>DRE =60/(+17)*100=</v>
+        <v>DRE =54/(+19)*100=</v>
       </c>
       <c r="K19" s="2">
         <f>(K16/(K18+L17))</f>
-        <v>0.4580152671755725</v>
+        <v>0.42519685039370081</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -957,11 +957,11 @@
     <row r="22" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J22" s="3" t="str">
         <f>_xlfn.CONCAT(F7,"/(",F7,"+",F8,"+",F9,"+",F10,")",)</f>
-        <v>36/(36+17+8+10)</v>
+        <v>36/(36+18+8+11)</v>
       </c>
       <c r="K22" s="2">
         <f>F7/SUM(F7:F10)</f>
-        <v>0.50704225352112675</v>
+        <v>0.49315068493150682</v>
       </c>
     </row>
     <row r="24" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -975,11 +975,11 @@
     <row r="25" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="str">
         <f>_xlfn.CONCAT(F8,"/(",F8,"+",F9,"+",F10,")",)</f>
-        <v>17/(17+8+10)</v>
+        <v>18/(18+8+11)</v>
       </c>
       <c r="K25" s="2">
         <f>F8/SUM(F8:F10)</f>
-        <v>0.48571428571428571</v>
+        <v>0.48648648648648651</v>
       </c>
     </row>
     <row r="27" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -993,11 +993,11 @@
     <row r="28" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J28" s="3" t="str">
         <f>_xlfn.CONCAT(F9,"/(",F9,"+",F10,")",)</f>
-        <v>8/(8+10)</v>
+        <v>8/(8+11)</v>
       </c>
       <c r="K28" s="2">
         <f>F9/SUM(F9:F10)</f>
-        <v>0.44444444444444442</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
   </sheetData>

--- a/Software Metrics.xlsx
+++ b/Software Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Web\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78818ED-4C21-4DCC-8DED-18B5DDDA060B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0CFC5-58D0-490E-B63D-54C288A0A7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,8 +938,8 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J19" s="3" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K16,"/(",D17,"+",L17,")*",100,"=")</f>
-        <v>DRE =54/(+19)*100=</v>
+        <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K16,"/(",E11,"+",L17,")*",100,"=")</f>
+        <v>DRE =54/(108+19)*100=</v>
       </c>
       <c r="K19" s="2">
         <f>(K16/(K18+L17))</f>

--- a/Software Metrics.xlsx
+++ b/Software Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Web\Software-Quailty-Enginerring-Escel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0CFC5-58D0-490E-B63D-54C288A0A7F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665ECD2-3368-4223-BA23-5E4FB27AFCCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hU36deupe87uE8CkwHUKVPm9rk/z0g46waHF1EDQPGHJZLGDJL0vgX/3R3RaZM+h/AoD3FoqehwfJ24mPUSEjA==" workbookSaltValue="dTXsVlwRuRjE++ajoMFp0A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598496FE-6CDC-40CD-ADAA-B9E60B052F62}">
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,20 +692,20 @@
         <v>5</v>
       </c>
       <c r="C4" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9">
         <f>SUM(C4:E4)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3">
         <f>F4</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -713,15 +713,15 @@
         <v>6</v>
       </c>
       <c r="C5" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="14">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9">
         <f t="shared" ref="F5:F10" si="0">SUM(C5:E5)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -738,21 +738,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="14">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="3">
         <f>SUM(C5:C10)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -774,11 +774,11 @@
       </c>
       <c r="J7" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K4,"/(",K5,"+",C11,")*",100,"=")</f>
-        <v>DRE =25/(0+37)*100=</v>
+        <v>DRE =26/(0+41)*100=</v>
       </c>
       <c r="K7" s="2">
         <f>(K4/(K5+C11))</f>
-        <v>0.67567567567567566</v>
+        <v>0.63414634146341464</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -792,11 +792,11 @@
         <v>3</v>
       </c>
       <c r="E8" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -810,11 +810,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>16</v>
@@ -831,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="K10" s="3">
         <f>F5</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -854,15 +854,15 @@
       </c>
       <c r="C11" s="9">
         <f>SUM(C4:C10)</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9">
         <f>SUM(D4:D10)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9">
         <f>SUM(E4:E10)</f>
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F11" s="12"/>
       <c r="J11" t="s">
@@ -870,11 +870,11 @@
       </c>
       <c r="K11" s="3" t="str">
         <f>_xlfn.CONCAT(C11,"-",F4,"=")</f>
-        <v>37-25=</v>
+        <v>41-26=</v>
       </c>
       <c r="L11" s="3">
         <f>C11-F4</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -883,18 +883,18 @@
       </c>
       <c r="K12" s="3">
         <f>D11</f>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="J13" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K10,"/(",D11,"+",L11,")*",100,"=")</f>
-        <v>DRE =30/(37+12)*100=</v>
+        <v>DRE =38/(45+15)*100=</v>
       </c>
       <c r="K13" s="2">
         <f>(K10/(K12+L11))</f>
-        <v>0.61224489795918369</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
       </c>
       <c r="K16" s="3">
         <f>F6</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.25">
@@ -920,11 +920,11 @@
       </c>
       <c r="K17" s="3" t="str">
         <f>_xlfn.CONCAT(C11,"+",D11,"-",F5,"-",F4,"=")</f>
-        <v>37+37-30-25=</v>
+        <v>41+45-38-26=</v>
       </c>
       <c r="L17" s="3">
         <f>C11-F4-F5+D11</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.25">
@@ -933,17 +933,17 @@
       </c>
       <c r="K18" s="3">
         <f>E11</f>
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="J19" s="3" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("DRE =", K16,"/(",E11,"+",L17,")*",100,"=")</f>
-        <v>DRE =54/(108+19)*100=</v>
+        <v>DRE =48/(101+22)*100=</v>
       </c>
       <c r="K19" s="2">
         <f>(K16/(K18+L17))</f>
-        <v>0.42519685039370081</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="21" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -957,11 +957,11 @@
     <row r="22" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J22" s="3" t="str">
         <f>_xlfn.CONCAT(F7,"/(",F7,"+",F8,"+",F9,"+",F10,")",)</f>
-        <v>36/(36+18+8+11)</v>
+        <v>36/(36+19+9+11)</v>
       </c>
       <c r="K22" s="2">
         <f>F7/SUM(F7:F10)</f>
-        <v>0.49315068493150682</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="24" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -975,11 +975,11 @@
     <row r="25" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="str">
         <f>_xlfn.CONCAT(F8,"/(",F8,"+",F9,"+",F10,")",)</f>
-        <v>18/(18+8+11)</v>
+        <v>19/(19+9+11)</v>
       </c>
       <c r="K25" s="2">
         <f>F8/SUM(F8:F10)</f>
-        <v>0.48648648648648651</v>
+        <v>0.48717948717948717</v>
       </c>
     </row>
     <row r="27" spans="9:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -993,11 +993,11 @@
     <row r="28" spans="9:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J28" s="3" t="str">
         <f>_xlfn.CONCAT(F9,"/(",F9,"+",F10,")",)</f>
-        <v>8/(8+11)</v>
+        <v>9/(9+11)</v>
       </c>
       <c r="K28" s="2">
         <f>F9/SUM(F9:F10)</f>
-        <v>0.42105263157894735</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
